--- a/src/test/data/anno_ArrayCells.xlsx
+++ b/src/test/data/anno_ArrayCells.xlsx
@@ -1,23 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466933DA-231F-4CA1-A9D6-F57A449D3C74}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="34320" yWindow="2475" windowWidth="21615" windowHeight="13860" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="通常" sheetId="1" r:id="rId1"/>
     <sheet name="結合の考慮" sheetId="2" r:id="rId2"/>
     <sheet name="変換処理" sheetId="3" r:id="rId3"/>
     <sheet name="数式を指定" sheetId="5" r:id="rId4"/>
+    <sheet name="コメント情報" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作成者</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{4A5E7C3F-4755-4C10-B975-EEBF34D68067}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>コメント1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{C301909F-0265-44E3-A6BC-02294B4AB6DF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>コメント3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{BAC4A137-4FE5-4163-87E7-892443EA73DF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>コメント2</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>アノテーション「@XlsArrayCell」のテスタ</t>
     <phoneticPr fontId="1"/>
@@ -204,6 +268,13 @@
     <t>基準日</t>
     <rPh sb="0" eb="3">
       <t>キジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント情報のマッピング</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -211,12 +282,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +311,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -249,7 +328,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -298,11 +377,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -315,8 +420,11 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -327,12 +435,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -374,7 +485,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,9 +518,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -442,6 +570,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -617,24 +762,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -651,17 +796,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="B6" s="4">
         <v>42826</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="B7" s="4">
         <v>42827</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="B8" s="4">
         <v>42828</v>
       </c>
@@ -673,64 +818,64 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="B2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="1:6">
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="12" t="s">
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C7" s="11" t="s">
+      <c r="F5" s="14"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
@@ -738,17 +883,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C10" s="11" t="s">
+    <row r="10" spans="1:6">
+      <c r="C10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+    <row r="11" spans="1:6">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -767,26 +912,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="B2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -794,7 +939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -807,12 +952,12 @@
         <v>1234.567</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="F6" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -821,7 +966,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -836,7 +981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -844,7 +989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="5">
         <v>1234</v>
       </c>
@@ -863,31 +1008,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="B2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
         <v>26</v>
       </c>
@@ -898,7 +1043,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="B5" s="7">
         <f>ROW()-4</f>
         <v>1</v>
@@ -922,13 +1067,13 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="B6" s="7">
         <f t="shared" ref="B6:B7" si="0">ROW()-4</f>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="B7" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -938,4 +1083,71 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07C0D36-C03B-4E0B-B5C2-E9B92E326C6D}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C7:C8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>